--- a/public/Шаблон_расписания.xlsx
+++ b/public/Шаблон_расписания.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28801"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02F25761-20DC-417A-9C1E-0056273B6CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C089540-BB69-4CDD-9EFD-EC8884F881E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Дата расписания</t>
   </si>
@@ -66,19 +66,31 @@
     <t>Section A</t>
   </si>
   <si>
-    <t>Санкт-Петербург</t>
-  </si>
-  <si>
-    <t>Рога и копыта</t>
-  </si>
-  <si>
-    <t>Иван Пупкин</t>
-  </si>
-  <si>
-    <t>Доклад</t>
+    <t>Санкт-Петербург 1</t>
+  </si>
+  <si>
+    <t>Рога и копыта 1</t>
+  </si>
+  <si>
+    <t>Иван Пупкин 1</t>
+  </si>
+  <si>
+    <t>Доклад 1</t>
   </si>
   <si>
     <t>да</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург 2</t>
+  </si>
+  <si>
+    <t>Рога и копыта 2</t>
+  </si>
+  <si>
+    <t>Иван Пупкин 2</t>
+  </si>
+  <si>
+    <t>Доклад 2</t>
   </si>
   <si>
     <t>нет</t>
@@ -89,7 +101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -160,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,10 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -514,7 +523,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -522,8 +531,8 @@
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -532,40 +541,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>45746</v>
+        <v>45752</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
@@ -580,10 +589,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="3">
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G2" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
@@ -591,13 +600,13 @@
       <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>45746</v>
+        <v>45752</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
@@ -606,25 +615,25 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3">
         <v>0.875</v>
       </c>
       <c r="G3" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
